--- a/simulations/raw_inclusion_exclusion/Donners_2021 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Donners_2021 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E3">
         <v>0.9333333333333333</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6434108527131783</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="I3">
-        <v>0.1336076817558299</v>
+        <v>0.11440329218107</v>
       </c>
       <c r="J3">
-        <v>0.2666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K3">
-        <v>40.46666666666667</v>
+        <v>35.8</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>13</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
         <v>21</v>
       </c>
-      <c r="T3">
-        <v>25</v>
-      </c>
       <c r="U3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V3">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="W3">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="X3">
+        <v>230</v>
+      </c>
+      <c r="Y3">
         <v>222</v>
       </c>
-      <c r="Y3">
-        <v>218</v>
-      </c>
       <c r="Z3">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AA3">
         <v>14</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.9547330000000001</v>
+        <v>0.987654</v>
       </c>
       <c r="AG3">
-        <v>0.9547330000000001</v>
+        <v>0.979424</v>
       </c>
       <c r="AH3">
+        <v>0.946502</v>
+      </c>
+      <c r="AI3">
         <v>0.9135799999999999</v>
       </c>
-      <c r="AI3">
-        <v>0.897119</v>
-      </c>
       <c r="AJ3">
-        <v>0.839506</v>
+        <v>0.8518520000000001</v>
       </c>
     </row>
   </sheetData>
